--- a/data/case1/5/Q_device_6.xlsx
+++ b/data/case1/5/Q_device_6.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.063252052415693649</v>
+        <v>-0.062406454520657094</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.063158997620538115</v>
+        <v>-0.062325849218305328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0086458542515389109</v>
+        <v>0.0086808235408796248</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0086458542663733033</v>
+        <v>-0.0086808235568912664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.012955655561866657</v>
+        <v>-0.01338536862046248</v>
       </c>
       <c r="B3" s="0">
-        <v>0.012955655554971086</v>
+        <v>0.013385368613070788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.040253074885383024</v>
+        <v>0.040465754734928118</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.040253074923174537</v>
+        <v>-0.040465754773398081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.019223641511859575</v>
+        <v>0.019279031331656808</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.019223641576988373</v>
+        <v>-0.019279031397856593</v>
       </c>
     </row>
   </sheetData>
